--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R38e5862eccf64c2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R081558e4cf35484a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R081558e4cf35484a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R20ffa16536564b58"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R20ffa16536564b58"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc2bc9b8b7cb24bac"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc2bc9b8b7cb24bac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rca45af4ffc35420b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rca45af4ffc35420b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R83945d89d96d4008"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_default_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R83945d89d96d4008"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R79d6744deaba4ef8"/>
   </x:sheets>
 </x:workbook>
 </file>
